--- a/model/projet.xlsx
+++ b/model/projet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="300" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Caractéristiques projet" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,7 +18,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="301">
+  <si>
+    <t>Champs</t>
+  </si>
+  <si>
+    <t>Valeurs</t>
+  </si>
   <si>
     <t>Nom projet</t>
   </si>
@@ -47,7 +53,7 @@
     <t>Catégorisation des impacts selon trois axes </t>
   </si>
   <si>
-    <t>insérer des cartographie pour mettre dans la fiche de synthèse ? </t>
+    <t>insérer des cartographie pour mettre dans la fiche de synthèse ?</t>
   </si>
   <si>
     <t>Tableau pour export et visualisation</t>
@@ -62,7 +68,7 @@
     <t>Si + de 1 afficher autant de champs rouge que de nombre</t>
   </si>
   <si>
-    <t>Nom </t>
+    <t>Nom</t>
   </si>
   <si>
     <t>texte</t>
@@ -1030,7 +1036,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1073,10 +1079,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -1164,10 +1166,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1176,62 +1178,70 @@
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.7295918367347"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1"/>
+      <c r="A4" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1263,7 +1273,7 @@
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
@@ -1271,206 +1281,206 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1515,71 +1525,71 @@
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" s="8" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E3" s="9" t="n">
         <v>10</v>
@@ -1610,18 +1620,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
@@ -1636,13 +1646,13 @@
       <c r="O4" s="9"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -1658,12 +1668,12 @@
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -1696,15 +1706,15 @@
         <v>6</v>
       </c>
       <c r="Q6" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="7" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
-        <v>55</v>
-      </c>
       <c r="B7" s="9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -1720,11 +1730,10 @@
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
-      <c r="Q7" s="0"/>
-    </row>
-    <row r="8" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -1741,14 +1750,13 @@
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
-      <c r="Q8" s="0"/>
-    </row>
-    <row r="9" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -1781,15 +1789,15 @@
         <v>50</v>
       </c>
       <c r="Q9" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="10" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="s">
-        <v>58</v>
-      </c>
       <c r="B10" s="9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -1805,53 +1813,20 @@
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
       <c r="P10" s="9"/>
-      <c r="Q10" s="0"/>
-    </row>
-    <row r="11" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="0"/>
-      <c r="C11" s="0"/>
-      <c r="D11" s="0"/>
-      <c r="E11" s="0"/>
-      <c r="F11" s="0"/>
-      <c r="G11" s="0"/>
-      <c r="H11" s="0"/>
-      <c r="I11" s="0"/>
-      <c r="J11" s="0"/>
-      <c r="K11" s="0"/>
-      <c r="L11" s="0"/>
-      <c r="M11" s="0"/>
-      <c r="N11" s="0"/>
-      <c r="O11" s="0"/>
-      <c r="P11" s="0"/>
-      <c r="Q11" s="0"/>
-    </row>
-    <row r="12" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="0"/>
-      <c r="C12" s="0"/>
-      <c r="D12" s="0"/>
-      <c r="E12" s="0"/>
-      <c r="F12" s="0"/>
-      <c r="G12" s="0"/>
-      <c r="H12" s="0"/>
-      <c r="I12" s="0"/>
-      <c r="J12" s="0"/>
-      <c r="K12" s="0"/>
-      <c r="L12" s="0"/>
-      <c r="M12" s="0"/>
-      <c r="N12" s="0"/>
-      <c r="O12" s="0"/>
-      <c r="P12" s="0"/>
-      <c r="Q12" s="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12" t="s">
-        <v>61</v>
+      <c r="A13" s="11" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1884,20 +1859,20 @@
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>64</v>
+      <c r="A2" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>3.006</v>
@@ -1905,7 +1880,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>2.556</v>
@@ -1913,7 +1888,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>4.913</v>
@@ -1921,7 +1896,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>3.638</v>
@@ -1929,7 +1904,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>3.658</v>
@@ -1937,7 +1912,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>6.892</v>
@@ -1945,7 +1920,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>3.684</v>
@@ -1953,7 +1928,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>2.663</v>
@@ -1961,7 +1936,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>3.314</v>
@@ -1969,7 +1944,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>5.687</v>
@@ -1977,7 +1952,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>6.892</v>
@@ -1985,7 +1960,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>3.349</v>
@@ -1993,7 +1968,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>4.909</v>
@@ -2001,7 +1976,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>3.591</v>
@@ -2009,7 +1984,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>3.997</v>
@@ -2017,7 +1992,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>4.392</v>
@@ -2025,7 +2000,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>2.574</v>
@@ -2033,7 +2008,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>2.824</v>
@@ -2041,7 +2016,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>2.665</v>
@@ -2049,7 +2024,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>6.855</v>
@@ -2057,7 +2032,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>2.544</v>
@@ -2065,7 +2040,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>3.893</v>
@@ -2073,7 +2048,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>5.622</v>
@@ -2081,7 +2056,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>5.537</v>
@@ -2089,7 +2064,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>2.84</v>
@@ -2097,7 +2072,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>2.435</v>
@@ -2105,7 +2080,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>3.864</v>
@@ -2113,7 +2088,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>3.532</v>
@@ -2121,7 +2096,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>2.998</v>
@@ -2129,7 +2104,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>2.133</v>
@@ -2137,7 +2112,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>2.897</v>
@@ -2145,7 +2120,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>3.761</v>
@@ -2153,7 +2128,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>4.857</v>
@@ -2161,7 +2136,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>5.471</v>
@@ -2169,7 +2144,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>3.234</v>
@@ -2177,7 +2152,7 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>5.626</v>
@@ -2185,7 +2160,7 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>3.196</v>
@@ -2193,7 +2168,7 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>2.999</v>
@@ -2201,7 +2176,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>4.17</v>
@@ -2209,7 +2184,7 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>3.544</v>
@@ -2217,7 +2192,7 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>2.587</v>
@@ -2225,7 +2200,7 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>3.221</v>
@@ -2233,7 +2208,7 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>3.221</v>
@@ -2241,7 +2216,7 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>2.813</v>
@@ -2249,7 +2224,7 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>9.849</v>
@@ -2257,7 +2232,7 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>2.443</v>
@@ -2265,7 +2240,7 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>2.917</v>
@@ -2273,7 +2248,7 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>2.854</v>
@@ -2281,7 +2256,7 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>3.933</v>
@@ -2289,7 +2264,7 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>3.656</v>
@@ -2297,7 +2272,7 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>2.981</v>
@@ -2305,7 +2280,7 @@
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>5.595</v>
@@ -2313,7 +2288,7 @@
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>3.064</v>
@@ -2321,7 +2296,7 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>3.11</v>
@@ -2329,7 +2304,7 @@
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>9.849</v>
@@ -2337,7 +2312,7 @@
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>2.05</v>
@@ -2345,7 +2320,7 @@
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>2.6</v>
@@ -2353,7 +2328,7 @@
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>3.929</v>
@@ -2361,7 +2336,7 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>2.788</v>
@@ -2369,7 +2344,7 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>3.078</v>
@@ -2377,7 +2352,7 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>3.999</v>
@@ -2385,7 +2360,7 @@
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>2.908</v>
@@ -2393,7 +2368,7 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>6.892</v>
@@ -2401,7 +2376,7 @@
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>2.052</v>
@@ -2409,7 +2384,7 @@
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>2.626</v>
@@ -2417,7 +2392,7 @@
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>2.617</v>
@@ -2425,7 +2400,7 @@
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>3.979</v>
@@ -2433,7 +2408,7 @@
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B70" s="0" t="n">
         <v>2.938</v>
@@ -2441,7 +2416,7 @@
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>3.334</v>
@@ -2449,7 +2424,7 @@
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B72" s="0" t="n">
         <v>2.975</v>
@@ -2457,7 +2432,7 @@
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B73" s="0" t="n">
         <v>4.22</v>
@@ -2465,7 +2440,7 @@
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B74" s="0" t="n">
         <v>4.913</v>
@@ -2473,7 +2448,7 @@
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B75" s="0" t="n">
         <v>1.833</v>
@@ -2481,7 +2456,7 @@
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B76" s="0" t="n">
         <v>3.073</v>
@@ -2489,7 +2464,7 @@
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B77" s="0" t="n">
         <v>2.691</v>
@@ -2497,7 +2472,7 @@
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B78" s="0" t="n">
         <v>4.358</v>
@@ -2505,7 +2480,7 @@
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B79" s="0" t="n">
         <v>2.94</v>
@@ -2513,7 +2488,7 @@
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B80" s="0" t="n">
         <v>4.363</v>
@@ -2521,7 +2496,7 @@
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B81" s="0" t="n">
         <v>4.382</v>
@@ -2529,7 +2504,7 @@
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>5.114</v>
@@ -2537,7 +2512,7 @@
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>2.9</v>
@@ -2545,7 +2520,7 @@
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B84" s="0" t="n">
         <v>2.989</v>
@@ -2553,7 +2528,7 @@
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B85" s="0" t="n">
         <v>2.807</v>
@@ -2561,7 +2536,7 @@
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B86" s="0" t="n">
         <v>3.3</v>
@@ -2569,7 +2544,7 @@
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B87" s="0" t="n">
         <v>2.024</v>
@@ -2577,7 +2552,7 @@
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B88" s="0" t="n">
         <v>5.032</v>
@@ -2585,7 +2560,7 @@
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B89" s="0" t="n">
         <v>4.582</v>
@@ -2593,7 +2568,7 @@
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B90" s="0" t="n">
         <v>2.477</v>
@@ -2601,7 +2576,7 @@
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B91" s="0" t="n">
         <v>3.886</v>
@@ -2609,7 +2584,7 @@
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B92" s="0" t="n">
         <v>4.215</v>
@@ -2617,7 +2592,7 @@
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B93" s="0" t="n">
         <v>2.364</v>
@@ -2625,7 +2600,7 @@
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B94" s="0" t="n">
         <v>2.736</v>
@@ -2633,7 +2608,7 @@
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B95" s="0" t="n">
         <v>2.418</v>
@@ -2641,7 +2616,7 @@
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B96" s="0" t="n">
         <v>3.595</v>
@@ -2649,7 +2624,7 @@
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B97" s="0" t="n">
         <v>4.358</v>
@@ -2657,7 +2632,7 @@
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B98" s="0" t="n">
         <v>2.77</v>
@@ -2665,7 +2640,7 @@
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B99" s="0" t="n">
         <v>4.769</v>
@@ -2673,7 +2648,7 @@
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B100" s="0" t="n">
         <v>5.151</v>
@@ -2681,7 +2656,7 @@
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B101" s="0" t="n">
         <v>2.717</v>
@@ -2689,7 +2664,7 @@
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B102" s="0" t="n">
         <v>3.661</v>
@@ -2697,7 +2672,7 @@
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B103" s="0" t="n">
         <v>5.627</v>
@@ -2705,7 +2680,7 @@
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B104" s="0" t="n">
         <v>4.909</v>
@@ -2713,7 +2688,7 @@
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B105" s="0" t="n">
         <v>3.55</v>
@@ -2721,7 +2696,7 @@
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B106" s="0" t="n">
         <v>2.896</v>
@@ -2729,7 +2704,7 @@
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B107" s="0" t="n">
         <v>5.415</v>
@@ -2737,7 +2712,7 @@
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B108" s="0" t="n">
         <v>2.577</v>
@@ -2745,7 +2720,7 @@
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B109" s="0" t="n">
         <v>3.351</v>
@@ -2753,7 +2728,7 @@
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B110" s="0" t="n">
         <v>3.226</v>
@@ -2761,7 +2736,7 @@
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B111" s="0" t="n">
         <v>3.172</v>
@@ -2769,7 +2744,7 @@
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B112" s="0" t="n">
         <v>3.286</v>
@@ -2777,7 +2752,7 @@
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B113" s="0" t="n">
         <v>3.903</v>
@@ -2785,7 +2760,7 @@
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B114" s="0" t="n">
         <v>3.573</v>
@@ -2793,7 +2768,7 @@
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B115" s="0" t="n">
         <v>3.414</v>
@@ -2801,7 +2776,7 @@
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B116" s="0" t="n">
         <v>3.87</v>
@@ -2809,7 +2784,7 @@
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B117" s="0" t="n">
         <v>2.984</v>
@@ -2817,7 +2792,7 @@
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B118" s="0" t="n">
         <v>2.584</v>
@@ -2825,7 +2800,7 @@
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B119" s="0" t="n">
         <v>2.501</v>
@@ -2833,7 +2808,7 @@
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B120" s="0" t="n">
         <v>2.714</v>
@@ -2841,7 +2816,7 @@
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B121" s="0" t="n">
         <v>3.258</v>
@@ -2849,7 +2824,7 @@
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B122" s="0" t="n">
         <v>3.106</v>
@@ -2857,7 +2832,7 @@
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B123" s="0" t="n">
         <v>3.486</v>
@@ -2865,7 +2840,7 @@
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B124" s="0" t="n">
         <v>3.018</v>
@@ -2873,7 +2848,7 @@
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B125" s="0" t="n">
         <v>2.345</v>
@@ -2881,7 +2856,7 @@
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B126" s="0" t="n">
         <v>4.804</v>
@@ -2889,7 +2864,7 @@
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B127" s="0" t="n">
         <v>4.166</v>
@@ -2897,7 +2872,7 @@
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B128" s="0" t="n">
         <v>6.892</v>
@@ -2905,7 +2880,7 @@
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B129" s="0" t="n">
         <v>3.907</v>
@@ -2913,7 +2888,7 @@
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B130" s="0" t="n">
         <v>7.031</v>
@@ -2921,7 +2896,7 @@
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B131" s="0" t="n">
         <v>9.487</v>
@@ -2929,7 +2904,7 @@
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B132" s="0" t="n">
         <v>2.54</v>
@@ -2937,7 +2912,7 @@
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B133" s="0" t="n">
         <v>2.959</v>
@@ -2945,7 +2920,7 @@
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B134" s="0" t="n">
         <v>2.575</v>
@@ -2953,7 +2928,7 @@
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B135" s="0" t="n">
         <v>3.377</v>
@@ -2961,7 +2936,7 @@
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B136" s="0" t="n">
         <v>4.499</v>
@@ -2969,7 +2944,7 @@
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B137" s="0" t="n">
         <v>4.287</v>
@@ -2977,7 +2952,7 @@
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B138" s="0" t="n">
         <v>3.368</v>
@@ -2985,7 +2960,7 @@
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B139" s="0" t="n">
         <v>3.315</v>
@@ -2993,7 +2968,7 @@
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B140" s="0" t="n">
         <v>2.574</v>
@@ -3001,7 +2976,7 @@
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B141" s="0" t="n">
         <v>2.66</v>
@@ -3009,7 +2984,7 @@
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B142" s="0" t="n">
         <v>3.617</v>
@@ -3017,7 +2992,7 @@
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B143" s="0" t="n">
         <v>4.358</v>
@@ -3025,7 +3000,7 @@
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B144" s="0" t="n">
         <v>2.487</v>
@@ -3033,7 +3008,7 @@
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B145" s="0" t="n">
         <v>9.849</v>
@@ -3041,7 +3016,7 @@
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B146" s="0" t="n">
         <v>3.704</v>
@@ -3049,7 +3024,7 @@
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B147" s="0" t="n">
         <v>2.303</v>
@@ -3057,7 +3032,7 @@
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B148" s="0" t="n">
         <v>6.881</v>
@@ -3065,7 +3040,7 @@
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B149" s="0" t="n">
         <v>3.395</v>
@@ -3073,7 +3048,7 @@
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B150" s="0" t="n">
         <v>3.713</v>
@@ -3081,7 +3056,7 @@
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B151" s="0" t="n">
         <v>3.892</v>
@@ -3089,7 +3064,7 @@
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B152" s="0" t="n">
         <v>2.487</v>
@@ -3097,7 +3072,7 @@
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B153" s="0" t="n">
         <v>2.514</v>
@@ -3105,7 +3080,7 @@
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B154" s="0" t="n">
         <v>3.951</v>
@@ -3113,7 +3088,7 @@
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B155" s="0" t="n">
         <v>6.892</v>
@@ -3121,7 +3096,7 @@
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B156" s="0" t="n">
         <v>3.604</v>
@@ -3129,7 +3104,7 @@
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B157" s="0" t="n">
         <v>6.892</v>
@@ -3137,7 +3112,7 @@
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B158" s="0" t="n">
         <v>2.436</v>
@@ -3145,7 +3120,7 @@
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B159" s="0" t="n">
         <v>3.143</v>
@@ -3153,7 +3128,7 @@
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B160" s="0" t="n">
         <v>3.72</v>
@@ -3161,7 +3136,7 @@
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B161" s="0" t="n">
         <v>2.302</v>
@@ -3169,7 +3144,7 @@
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B162" s="0" t="n">
         <v>3.338</v>
@@ -3177,7 +3152,7 @@
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B163" s="0" t="n">
         <v>3.571</v>
@@ -3185,7 +3160,7 @@
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B164" s="0" t="n">
         <v>5.597</v>
@@ -3193,7 +3168,7 @@
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B165" s="0" t="n">
         <v>4.368</v>
@@ -3201,7 +3176,7 @@
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B166" s="0" t="n">
         <v>3.633</v>
@@ -3209,7 +3184,7 @@
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B167" s="0" t="n">
         <v>4.83</v>
@@ -3217,7 +3192,7 @@
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B168" s="0" t="n">
         <v>3.688</v>
@@ -3225,7 +3200,7 @@
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B169" s="0" t="n">
         <v>3.395</v>
@@ -3233,7 +3208,7 @@
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B170" s="0" t="n">
         <v>2.385</v>
@@ -3241,7 +3216,7 @@
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B171" s="0" t="n">
         <v>3.082</v>
@@ -3249,7 +3224,7 @@
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B172" s="0" t="n">
         <v>2.892</v>
@@ -3257,7 +3232,7 @@
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B173" s="0" t="n">
         <v>2.905</v>
@@ -3265,7 +3240,7 @@
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B174" s="0" t="n">
         <v>3.74</v>
@@ -3273,7 +3248,7 @@
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B175" s="0" t="n">
         <v>2.611</v>
@@ -3281,7 +3256,7 @@
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B176" s="0" t="n">
         <v>4.339</v>
@@ -3289,7 +3264,7 @@
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B177" s="0" t="n">
         <v>2.364</v>
@@ -3297,7 +3272,7 @@
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B178" s="0" t="n">
         <v>3.864</v>
@@ -3305,7 +3280,7 @@
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B179" s="0" t="n">
         <v>4.242</v>
@@ -3313,7 +3288,7 @@
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B180" s="0" t="n">
         <v>4.382</v>
@@ -3321,7 +3296,7 @@
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B181" s="0" t="n">
         <v>6.892</v>
@@ -3329,7 +3304,7 @@
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B182" s="0" t="n">
         <v>2.069</v>
@@ -3337,7 +3312,7 @@
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B183" s="0" t="n">
         <v>5.622</v>
@@ -3345,7 +3320,7 @@
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B184" s="0" t="n">
         <v>4.804</v>
@@ -3353,7 +3328,7 @@
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B185" s="0" t="n">
         <v>3.584</v>
@@ -3361,7 +3336,7 @@
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B186" s="0" t="n">
         <v>3.684</v>
@@ -3369,7 +3344,7 @@
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B187" s="0" t="n">
         <v>7.031</v>
@@ -3377,7 +3352,7 @@
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B188" s="0" t="n">
         <v>3.013</v>
@@ -3385,7 +3360,7 @@
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B189" s="0" t="n">
         <v>3.263</v>
@@ -3393,7 +3368,7 @@
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B190" s="0" t="n">
         <v>4.795</v>
@@ -3401,7 +3376,7 @@
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B191" s="0" t="n">
         <v>6.892</v>
@@ -3409,7 +3384,7 @@
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B192" s="0" t="n">
         <v>3.676</v>
@@ -3417,7 +3392,7 @@
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B193" s="0" t="n">
         <v>3.7</v>
@@ -3425,7 +3400,7 @@
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B194" s="0" t="n">
         <v>2.824</v>
@@ -3433,7 +3408,7 @@
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B195" s="0" t="n">
         <v>4.381</v>
@@ -3441,7 +3416,7 @@
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B196" s="0" t="n">
         <v>5.507</v>
@@ -3449,7 +3424,7 @@
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B197" s="0" t="n">
         <v>2.419</v>
@@ -3457,7 +3432,7 @@
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B198" s="0" t="n">
         <v>3.22</v>
@@ -3465,7 +3440,7 @@
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B199" s="0" t="n">
         <v>3.146</v>
@@ -3473,7 +3448,7 @@
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B200" s="0" t="n">
         <v>3.379</v>
@@ -3481,7 +3456,7 @@
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B201" s="0" t="n">
         <v>2.592</v>
@@ -3489,7 +3464,7 @@
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B202" s="0" t="n">
         <v>3.296</v>
@@ -3497,7 +3472,7 @@
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B203" s="0" t="n">
         <v>3.638</v>
@@ -3505,7 +3480,7 @@
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B204" s="0" t="n">
         <v>2.686</v>
@@ -3513,7 +3488,7 @@
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B205" s="0" t="n">
         <v>2.473</v>
@@ -3521,7 +3496,7 @@
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B206" s="0" t="n">
         <v>2.722</v>
@@ -3529,7 +3504,7 @@
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B207" s="0" t="n">
         <v>3.055</v>
@@ -3537,7 +3512,7 @@
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B208" s="0" t="n">
         <v>3.1</v>
@@ -3545,7 +3520,7 @@
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B209" s="0" t="n">
         <v>2.641</v>
@@ -3553,7 +3528,7 @@
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B210" s="0" t="n">
         <v>2.931</v>
@@ -3561,7 +3536,7 @@
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B211" s="0" t="n">
         <v>5.533</v>
@@ -3569,7 +3544,7 @@
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B212" s="0" t="n">
         <v>3.999</v>
@@ -3577,7 +3552,7 @@
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B213" s="0" t="n">
         <v>4.024</v>
@@ -3585,7 +3560,7 @@
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B214" s="0" t="n">
         <v>2.472</v>
@@ -3593,7 +3568,7 @@
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B215" s="0" t="n">
         <v>3.456</v>
@@ -3601,7 +3576,7 @@
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B216" s="0" t="n">
         <v>2.871</v>
@@ -3609,7 +3584,7 @@
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B217" s="0" t="n">
         <v>2.685</v>
@@ -3617,7 +3592,7 @@
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B218" s="0" t="n">
         <v>4.344</v>
@@ -3625,7 +3600,7 @@
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B219" s="0" t="n">
         <v>6.892</v>
@@ -3633,7 +3608,7 @@
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B220" s="0" t="n">
         <v>3.633</v>
@@ -3641,7 +3616,7 @@
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B221" s="0" t="n">
         <v>3.544</v>
@@ -3649,7 +3624,7 @@
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B222" s="0" t="n">
         <v>5.595</v>
@@ -3657,7 +3632,7 @@
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B223" s="0" t="n">
         <v>4.867</v>
@@ -3665,7 +3640,7 @@
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B224" s="0" t="n">
         <v>3.544</v>
@@ -3673,7 +3648,7 @@
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B225" s="0" t="n">
         <v>4.289</v>
@@ -3681,7 +3656,7 @@
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B226" s="0" t="n">
         <v>2.914</v>
@@ -3689,7 +3664,7 @@
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B227" s="0" t="n">
         <v>2.155</v>
@@ -3697,7 +3672,7 @@
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B228" s="0" t="n">
         <v>3.291</v>
@@ -3705,7 +3680,7 @@
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B229" s="0" t="n">
         <v>2.234</v>
@@ -3713,7 +3688,7 @@
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B230" s="0" t="n">
         <v>2.511</v>
@@ -3721,7 +3696,7 @@
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B231" s="0" t="n">
         <v>4.847</v>
@@ -3729,7 +3704,7 @@
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B232" s="0" t="n">
         <v>3.182</v>
@@ -3737,7 +3712,7 @@
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B233" s="0" t="n">
         <v>3.143</v>
@@ -3745,7 +3720,7 @@
     </row>
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B234" s="0" t="n">
         <v>2.665</v>
@@ -3753,7 +3728,7 @@
     </row>
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B235" s="0" t="n">
         <v>2.555</v>
@@ -3761,7 +3736,7 @@
     </row>
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B236" s="0" t="n">
         <v>4.847</v>

--- a/model/projet.xlsx
+++ b/model/projet.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="294">
   <si>
     <t>Champs</t>
   </si>
@@ -113,9 +113,6 @@
     <t>liste : avifaune, chiroptère, mammifère, amphibien, reptile, insecte, flore, poisson, crustacé/ mollusque, Communausté faunistique</t>
   </si>
   <si>
-    <t>Tableau pour sorties graphiques</t>
-  </si>
-  <si>
     <t>Niveau</t>
   </si>
   <si>
@@ -191,16 +188,10 @@
     <t>Ind B</t>
   </si>
   <si>
-    <t>répéter autant de fois qu'il y a d'habitats</t>
-  </si>
-  <si>
     <t>Habitat 2</t>
   </si>
   <si>
     <t>Ind C</t>
-  </si>
-  <si>
-    <t>répéter autant de fois qu'il y a d'espèces</t>
   </si>
   <si>
     <t>Espèce 1</t>
@@ -960,7 +951,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -969,30 +960,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
         <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -1021,7 +999,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1034,27 +1012,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1568,343 +1542,319 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="262" zoomScaleNormal="262" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.7091836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.1428571428571"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.7040816326531"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.7091836734694"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.7091836734694"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.8571428571429"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.7091836734694"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="16.2908163265306"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10.7091836734694"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.5663265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="10.7091836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" s="4" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="M1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="O1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="P1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="P2" s="6" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="B2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E2" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>-9</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="5" t="n">
+      <c r="C3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>-75</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4" t="n">
+        <v>-50</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="F3" s="5" t="n">
-        <v>-9</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5" t="n">
-        <v>-5</v>
-      </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="K3" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5" t="n">
-        <v>-5</v>
-      </c>
-      <c r="P3" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="L8" s="4"/>
+      <c r="M8" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4" t="n">
+        <v>-65</v>
+      </c>
+      <c r="P8" s="4" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="F6" s="5" t="n">
-        <v>-5</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5" t="n">
-        <v>-5</v>
-      </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5" t="n">
-        <v>13</v>
-      </c>
-      <c r="K6" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
+      <c r="B9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5" t="n">
-        <v>100</v>
-      </c>
-      <c r="F9" s="5" t="n">
-        <v>-75</v>
-      </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5" t="n">
-        <v>-50</v>
-      </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5" t="n">
-        <v>100</v>
-      </c>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5" t="n">
-        <v>-65</v>
-      </c>
-      <c r="P9" s="5" t="n">
-        <v>50</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1927,16 +1877,16 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>62</v>
+      <c r="A1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>3.006</v>
@@ -1944,7 +1894,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>2.556</v>
@@ -1952,7 +1902,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>4.913</v>
@@ -1960,7 +1910,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>3.638</v>
@@ -1968,7 +1918,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>3.658</v>
@@ -1976,7 +1926,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>6.892</v>
@@ -1984,7 +1934,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>3.684</v>
@@ -1992,7 +1942,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>2.663</v>
@@ -2000,7 +1950,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>3.314</v>
@@ -2008,7 +1958,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>5.687</v>
@@ -2016,7 +1966,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>6.892</v>
@@ -2024,7 +1974,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>3.349</v>
@@ -2032,7 +1982,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>4.909</v>
@@ -2040,7 +1990,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>3.591</v>
@@ -2048,7 +1998,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>3.997</v>
@@ -2056,7 +2006,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>4.392</v>
@@ -2064,7 +2014,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>2.574</v>
@@ -2072,7 +2022,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>2.824</v>
@@ -2080,7 +2030,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>2.665</v>
@@ -2088,7 +2038,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>6.855</v>
@@ -2096,7 +2046,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>2.544</v>
@@ -2104,7 +2054,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>3.893</v>
@@ -2112,7 +2062,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>5.622</v>
@@ -2120,7 +2070,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>5.537</v>
@@ -2128,7 +2078,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>2.84</v>
@@ -2136,7 +2086,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>2.435</v>
@@ -2144,7 +2094,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>3.864</v>
@@ -2152,7 +2102,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>3.532</v>
@@ -2160,7 +2110,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>2.998</v>
@@ -2168,7 +2118,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>2.133</v>
@@ -2176,7 +2126,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>2.897</v>
@@ -2184,7 +2134,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>3.761</v>
@@ -2192,7 +2142,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>4.857</v>
@@ -2200,7 +2150,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>5.471</v>
@@ -2208,7 +2158,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>3.234</v>
@@ -2216,7 +2166,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>5.626</v>
@@ -2224,7 +2174,7 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>3.196</v>
@@ -2232,7 +2182,7 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>2.999</v>
@@ -2240,7 +2190,7 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>4.17</v>
@@ -2248,7 +2198,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>3.544</v>
@@ -2256,7 +2206,7 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>2.587</v>
@@ -2264,7 +2214,7 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>3.221</v>
@@ -2272,7 +2222,7 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>3.221</v>
@@ -2280,7 +2230,7 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>2.813</v>
@@ -2288,7 +2238,7 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>9.849</v>
@@ -2296,7 +2246,7 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>2.443</v>
@@ -2304,7 +2254,7 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>2.917</v>
@@ -2312,7 +2262,7 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>2.854</v>
@@ -2320,7 +2270,7 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>3.933</v>
@@ -2328,7 +2278,7 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>3.656</v>
@@ -2336,7 +2286,7 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>2.981</v>
@@ -2344,7 +2294,7 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>5.595</v>
@@ -2352,7 +2302,7 @@
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>3.064</v>
@@ -2360,7 +2310,7 @@
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>3.11</v>
@@ -2368,7 +2318,7 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>9.849</v>
@@ -2376,7 +2326,7 @@
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>2.05</v>
@@ -2384,7 +2334,7 @@
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>2.6</v>
@@ -2392,7 +2342,7 @@
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>3.929</v>
@@ -2400,7 +2350,7 @@
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>2.788</v>
@@ -2408,7 +2358,7 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>3.078</v>
@@ -2416,7 +2366,7 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>3.999</v>
@@ -2424,7 +2374,7 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>2.908</v>
@@ -2432,7 +2382,7 @@
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>6.892</v>
@@ -2440,7 +2390,7 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>2.052</v>
@@ -2448,7 +2398,7 @@
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>2.626</v>
@@ -2456,7 +2406,7 @@
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>2.617</v>
@@ -2464,7 +2414,7 @@
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>3.979</v>
@@ -2472,7 +2422,7 @@
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>2.938</v>
@@ -2480,7 +2430,7 @@
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B70" s="0" t="n">
         <v>3.334</v>
@@ -2488,7 +2438,7 @@
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>2.975</v>
@@ -2496,7 +2446,7 @@
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B72" s="0" t="n">
         <v>4.22</v>
@@ -2504,7 +2454,7 @@
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B73" s="0" t="n">
         <v>4.913</v>
@@ -2512,7 +2462,7 @@
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B74" s="0" t="n">
         <v>1.833</v>
@@ -2520,7 +2470,7 @@
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B75" s="0" t="n">
         <v>3.073</v>
@@ -2528,7 +2478,7 @@
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B76" s="0" t="n">
         <v>2.691</v>
@@ -2536,7 +2486,7 @@
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B77" s="0" t="n">
         <v>4.358</v>
@@ -2544,7 +2494,7 @@
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B78" s="0" t="n">
         <v>2.94</v>
@@ -2552,7 +2502,7 @@
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B79" s="0" t="n">
         <v>4.363</v>
@@ -2560,7 +2510,7 @@
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B80" s="0" t="n">
         <v>4.382</v>
@@ -2568,7 +2518,7 @@
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B81" s="0" t="n">
         <v>5.114</v>
@@ -2576,7 +2526,7 @@
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>2.9</v>
@@ -2584,7 +2534,7 @@
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>2.989</v>
@@ -2592,7 +2542,7 @@
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B84" s="0" t="n">
         <v>2.807</v>
@@ -2600,7 +2550,7 @@
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B85" s="0" t="n">
         <v>3.3</v>
@@ -2608,7 +2558,7 @@
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B86" s="0" t="n">
         <v>2.024</v>
@@ -2616,7 +2566,7 @@
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B87" s="0" t="n">
         <v>5.032</v>
@@ -2624,7 +2574,7 @@
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B88" s="0" t="n">
         <v>4.582</v>
@@ -2632,7 +2582,7 @@
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B89" s="0" t="n">
         <v>2.477</v>
@@ -2640,7 +2590,7 @@
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B90" s="0" t="n">
         <v>3.886</v>
@@ -2648,7 +2598,7 @@
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B91" s="0" t="n">
         <v>4.215</v>
@@ -2656,7 +2606,7 @@
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B92" s="0" t="n">
         <v>2.364</v>
@@ -2664,7 +2614,7 @@
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B93" s="0" t="n">
         <v>2.736</v>
@@ -2672,7 +2622,7 @@
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B94" s="0" t="n">
         <v>2.418</v>
@@ -2680,7 +2630,7 @@
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B95" s="0" t="n">
         <v>3.595</v>
@@ -2688,7 +2638,7 @@
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B96" s="0" t="n">
         <v>4.358</v>
@@ -2696,7 +2646,7 @@
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B97" s="0" t="n">
         <v>2.77</v>
@@ -2704,7 +2654,7 @@
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B98" s="0" t="n">
         <v>4.769</v>
@@ -2712,7 +2662,7 @@
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B99" s="0" t="n">
         <v>5.151</v>
@@ -2720,7 +2670,7 @@
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B100" s="0" t="n">
         <v>2.717</v>
@@ -2728,7 +2678,7 @@
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B101" s="0" t="n">
         <v>3.661</v>
@@ -2736,7 +2686,7 @@
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B102" s="0" t="n">
         <v>5.627</v>
@@ -2744,7 +2694,7 @@
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B103" s="0" t="n">
         <v>4.909</v>
@@ -2752,7 +2702,7 @@
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B104" s="0" t="n">
         <v>3.55</v>
@@ -2760,7 +2710,7 @@
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B105" s="0" t="n">
         <v>2.896</v>
@@ -2768,7 +2718,7 @@
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B106" s="0" t="n">
         <v>5.415</v>
@@ -2776,7 +2726,7 @@
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B107" s="0" t="n">
         <v>2.577</v>
@@ -2784,7 +2734,7 @@
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B108" s="0" t="n">
         <v>3.351</v>
@@ -2792,7 +2742,7 @@
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B109" s="0" t="n">
         <v>3.226</v>
@@ -2800,7 +2750,7 @@
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B110" s="0" t="n">
         <v>3.172</v>
@@ -2808,7 +2758,7 @@
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B111" s="0" t="n">
         <v>3.286</v>
@@ -2816,7 +2766,7 @@
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B112" s="0" t="n">
         <v>3.903</v>
@@ -2824,7 +2774,7 @@
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B113" s="0" t="n">
         <v>3.573</v>
@@ -2832,7 +2782,7 @@
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B114" s="0" t="n">
         <v>3.414</v>
@@ -2840,7 +2790,7 @@
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B115" s="0" t="n">
         <v>3.87</v>
@@ -2848,7 +2798,7 @@
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B116" s="0" t="n">
         <v>2.984</v>
@@ -2856,7 +2806,7 @@
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B117" s="0" t="n">
         <v>2.584</v>
@@ -2864,7 +2814,7 @@
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B118" s="0" t="n">
         <v>2.501</v>
@@ -2872,7 +2822,7 @@
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B119" s="0" t="n">
         <v>2.714</v>
@@ -2880,7 +2830,7 @@
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B120" s="0" t="n">
         <v>3.258</v>
@@ -2888,7 +2838,7 @@
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B121" s="0" t="n">
         <v>3.106</v>
@@ -2896,7 +2846,7 @@
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B122" s="0" t="n">
         <v>3.486</v>
@@ -2904,7 +2854,7 @@
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B123" s="0" t="n">
         <v>3.018</v>
@@ -2912,7 +2862,7 @@
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B124" s="0" t="n">
         <v>2.345</v>
@@ -2920,7 +2870,7 @@
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B125" s="0" t="n">
         <v>4.804</v>
@@ -2928,7 +2878,7 @@
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B126" s="0" t="n">
         <v>4.166</v>
@@ -2936,7 +2886,7 @@
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B127" s="0" t="n">
         <v>6.892</v>
@@ -2944,7 +2894,7 @@
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B128" s="0" t="n">
         <v>3.907</v>
@@ -2952,7 +2902,7 @@
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B129" s="0" t="n">
         <v>7.031</v>
@@ -2960,7 +2910,7 @@
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B130" s="0" t="n">
         <v>9.487</v>
@@ -2968,7 +2918,7 @@
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B131" s="0" t="n">
         <v>2.54</v>
@@ -2976,7 +2926,7 @@
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B132" s="0" t="n">
         <v>2.959</v>
@@ -2984,7 +2934,7 @@
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B133" s="0" t="n">
         <v>2.575</v>
@@ -2992,7 +2942,7 @@
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B134" s="0" t="n">
         <v>3.377</v>
@@ -3000,7 +2950,7 @@
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B135" s="0" t="n">
         <v>4.499</v>
@@ -3008,7 +2958,7 @@
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B136" s="0" t="n">
         <v>4.287</v>
@@ -3016,7 +2966,7 @@
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B137" s="0" t="n">
         <v>3.368</v>
@@ -3024,7 +2974,7 @@
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B138" s="0" t="n">
         <v>3.315</v>
@@ -3032,7 +2982,7 @@
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B139" s="0" t="n">
         <v>2.574</v>
@@ -3040,7 +2990,7 @@
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B140" s="0" t="n">
         <v>2.66</v>
@@ -3048,7 +2998,7 @@
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B141" s="0" t="n">
         <v>3.617</v>
@@ -3056,7 +3006,7 @@
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B142" s="0" t="n">
         <v>4.358</v>
@@ -3064,7 +3014,7 @@
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B143" s="0" t="n">
         <v>2.487</v>
@@ -3072,7 +3022,7 @@
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B144" s="0" t="n">
         <v>9.849</v>
@@ -3080,7 +3030,7 @@
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B145" s="0" t="n">
         <v>3.704</v>
@@ -3088,7 +3038,7 @@
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B146" s="0" t="n">
         <v>2.303</v>
@@ -3096,7 +3046,7 @@
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B147" s="0" t="n">
         <v>6.881</v>
@@ -3104,7 +3054,7 @@
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B148" s="0" t="n">
         <v>3.395</v>
@@ -3112,7 +3062,7 @@
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B149" s="0" t="n">
         <v>3.713</v>
@@ -3120,7 +3070,7 @@
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B150" s="0" t="n">
         <v>3.892</v>
@@ -3128,7 +3078,7 @@
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B151" s="0" t="n">
         <v>2.487</v>
@@ -3136,7 +3086,7 @@
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B152" s="0" t="n">
         <v>2.514</v>
@@ -3144,7 +3094,7 @@
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B153" s="0" t="n">
         <v>3.951</v>
@@ -3152,7 +3102,7 @@
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B154" s="0" t="n">
         <v>6.892</v>
@@ -3160,7 +3110,7 @@
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B155" s="0" t="n">
         <v>3.604</v>
@@ -3168,7 +3118,7 @@
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B156" s="0" t="n">
         <v>6.892</v>
@@ -3176,7 +3126,7 @@
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B157" s="0" t="n">
         <v>2.436</v>
@@ -3184,7 +3134,7 @@
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B158" s="0" t="n">
         <v>3.143</v>
@@ -3192,7 +3142,7 @@
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B159" s="0" t="n">
         <v>3.72</v>
@@ -3200,7 +3150,7 @@
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B160" s="0" t="n">
         <v>2.302</v>
@@ -3208,7 +3158,7 @@
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B161" s="0" t="n">
         <v>3.338</v>
@@ -3216,7 +3166,7 @@
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B162" s="0" t="n">
         <v>3.571</v>
@@ -3224,7 +3174,7 @@
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B163" s="0" t="n">
         <v>5.597</v>
@@ -3232,7 +3182,7 @@
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B164" s="0" t="n">
         <v>4.368</v>
@@ -3240,7 +3190,7 @@
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B165" s="0" t="n">
         <v>3.633</v>
@@ -3248,7 +3198,7 @@
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B166" s="0" t="n">
         <v>4.83</v>
@@ -3256,7 +3206,7 @@
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B167" s="0" t="n">
         <v>3.688</v>
@@ -3264,7 +3214,7 @@
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B168" s="0" t="n">
         <v>3.395</v>
@@ -3272,7 +3222,7 @@
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B169" s="0" t="n">
         <v>2.385</v>
@@ -3280,7 +3230,7 @@
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B170" s="0" t="n">
         <v>3.082</v>
@@ -3288,7 +3238,7 @@
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B171" s="0" t="n">
         <v>2.892</v>
@@ -3296,7 +3246,7 @@
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B172" s="0" t="n">
         <v>2.905</v>
@@ -3304,7 +3254,7 @@
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B173" s="0" t="n">
         <v>3.74</v>
@@ -3312,7 +3262,7 @@
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B174" s="0" t="n">
         <v>2.611</v>
@@ -3320,7 +3270,7 @@
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B175" s="0" t="n">
         <v>4.339</v>
@@ -3328,7 +3278,7 @@
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B176" s="0" t="n">
         <v>2.364</v>
@@ -3336,7 +3286,7 @@
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B177" s="0" t="n">
         <v>3.864</v>
@@ -3344,7 +3294,7 @@
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B178" s="0" t="n">
         <v>4.242</v>
@@ -3352,7 +3302,7 @@
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B179" s="0" t="n">
         <v>4.382</v>
@@ -3360,7 +3310,7 @@
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B180" s="0" t="n">
         <v>6.892</v>
@@ -3368,7 +3318,7 @@
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B181" s="0" t="n">
         <v>2.069</v>
@@ -3376,7 +3326,7 @@
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B182" s="0" t="n">
         <v>5.622</v>
@@ -3384,7 +3334,7 @@
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B183" s="0" t="n">
         <v>4.804</v>
@@ -3392,7 +3342,7 @@
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B184" s="0" t="n">
         <v>3.584</v>
@@ -3400,7 +3350,7 @@
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B185" s="0" t="n">
         <v>3.684</v>
@@ -3408,7 +3358,7 @@
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B186" s="0" t="n">
         <v>7.031</v>
@@ -3416,7 +3366,7 @@
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B187" s="0" t="n">
         <v>3.013</v>
@@ -3424,7 +3374,7 @@
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B188" s="0" t="n">
         <v>3.263</v>
@@ -3432,7 +3382,7 @@
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B189" s="0" t="n">
         <v>4.795</v>
@@ -3440,7 +3390,7 @@
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B190" s="0" t="n">
         <v>6.892</v>
@@ -3448,7 +3398,7 @@
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B191" s="0" t="n">
         <v>3.676</v>
@@ -3456,7 +3406,7 @@
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B192" s="0" t="n">
         <v>3.7</v>
@@ -3464,7 +3414,7 @@
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B193" s="0" t="n">
         <v>2.824</v>
@@ -3472,7 +3422,7 @@
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B194" s="0" t="n">
         <v>4.381</v>
@@ -3480,7 +3430,7 @@
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B195" s="0" t="n">
         <v>5.507</v>
@@ -3488,7 +3438,7 @@
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B196" s="0" t="n">
         <v>2.419</v>
@@ -3496,7 +3446,7 @@
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B197" s="0" t="n">
         <v>3.22</v>
@@ -3504,7 +3454,7 @@
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B198" s="0" t="n">
         <v>3.146</v>
@@ -3512,7 +3462,7 @@
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B199" s="0" t="n">
         <v>3.379</v>
@@ -3520,7 +3470,7 @@
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B200" s="0" t="n">
         <v>2.592</v>
@@ -3528,7 +3478,7 @@
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B201" s="0" t="n">
         <v>3.296</v>
@@ -3536,7 +3486,7 @@
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B202" s="0" t="n">
         <v>3.638</v>
@@ -3544,7 +3494,7 @@
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B203" s="0" t="n">
         <v>2.686</v>
@@ -3552,7 +3502,7 @@
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B204" s="0" t="n">
         <v>2.473</v>
@@ -3560,7 +3510,7 @@
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B205" s="0" t="n">
         <v>2.722</v>
@@ -3568,7 +3518,7 @@
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B206" s="0" t="n">
         <v>3.055</v>
@@ -3576,7 +3526,7 @@
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B207" s="0" t="n">
         <v>3.1</v>
@@ -3584,7 +3534,7 @@
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B208" s="0" t="n">
         <v>2.641</v>
@@ -3592,7 +3542,7 @@
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B209" s="0" t="n">
         <v>2.931</v>
@@ -3600,7 +3550,7 @@
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B210" s="0" t="n">
         <v>5.533</v>
@@ -3608,7 +3558,7 @@
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B211" s="0" t="n">
         <v>3.999</v>
@@ -3616,7 +3566,7 @@
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B212" s="0" t="n">
         <v>4.024</v>
@@ -3624,7 +3574,7 @@
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B213" s="0" t="n">
         <v>2.472</v>
@@ -3632,7 +3582,7 @@
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B214" s="0" t="n">
         <v>3.456</v>
@@ -3640,7 +3590,7 @@
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B215" s="0" t="n">
         <v>2.871</v>
@@ -3648,7 +3598,7 @@
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B216" s="0" t="n">
         <v>2.685</v>
@@ -3656,7 +3606,7 @@
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B217" s="0" t="n">
         <v>4.344</v>
@@ -3664,7 +3614,7 @@
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B218" s="0" t="n">
         <v>6.892</v>
@@ -3672,7 +3622,7 @@
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B219" s="0" t="n">
         <v>3.633</v>
@@ -3680,7 +3630,7 @@
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B220" s="0" t="n">
         <v>3.544</v>
@@ -3688,7 +3638,7 @@
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B221" s="0" t="n">
         <v>5.595</v>
@@ -3696,7 +3646,7 @@
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B222" s="0" t="n">
         <v>4.867</v>
@@ -3704,7 +3654,7 @@
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B223" s="0" t="n">
         <v>3.544</v>
@@ -3712,7 +3662,7 @@
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B224" s="0" t="n">
         <v>4.289</v>
@@ -3720,7 +3670,7 @@
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B225" s="0" t="n">
         <v>2.914</v>
@@ -3728,7 +3678,7 @@
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B226" s="0" t="n">
         <v>2.155</v>
@@ -3736,7 +3686,7 @@
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B227" s="0" t="n">
         <v>3.291</v>
@@ -3744,7 +3694,7 @@
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B228" s="0" t="n">
         <v>2.234</v>
@@ -3752,7 +3702,7 @@
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B229" s="0" t="n">
         <v>2.511</v>
@@ -3760,7 +3710,7 @@
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B230" s="0" t="n">
         <v>4.847</v>
@@ -3768,7 +3718,7 @@
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B231" s="0" t="n">
         <v>3.182</v>
@@ -3776,7 +3726,7 @@
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B232" s="0" t="n">
         <v>3.143</v>
@@ -3784,7 +3734,7 @@
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B233" s="0" t="n">
         <v>2.665</v>
@@ -3792,7 +3742,7 @@
     </row>
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B234" s="0" t="n">
         <v>2.555</v>
@@ -3800,7 +3750,7 @@
     </row>
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B235" s="0" t="n">
         <v>4.847</v>
